--- a/Book4.xlsx
+++ b/Book4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\divyanitesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D4FA41-5285-45CE-B1AF-C62ABB900BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0F64CD-654F-46C2-8E59-81F8C02CB3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6AEFF83-53A2-4AB3-A54B-BFDB81503BED}"/>
   </bookViews>
@@ -297,9 +297,6 @@
     <t xml:space="preserve"> Email -    divyanigkjfillmknkdn jain   714@gmail.com                 password- kriyanshA@                           </t>
   </si>
   <si>
-    <t xml:space="preserve"> Email -    divyani jain 714@gmail.com                 password-                                             </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Email -    divyani jain 714@gmail.com                 password-  @#$%^                             </t>
   </si>
   <si>
@@ -1047,6 +1044,9 @@
   </si>
   <si>
     <t xml:space="preserve">click on sign in  only password is should  show  incorrect </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Email -    divyani jain  @gmail.com                 password-                                             </t>
   </si>
 </sst>
 </file>
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06817A5D-A7A6-4F44-8082-7E89BB95033F}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,7 +1682,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>12</v>
@@ -1711,7 +1711,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>12</v>
@@ -1737,7 +1737,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
@@ -1763,7 +1763,7 @@
         <v>34</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>37</v>
@@ -1821,7 +1821,7 @@
         <v>29</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
@@ -1850,7 +1850,7 @@
         <v>39</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>37</v>
@@ -1908,7 +1908,7 @@
         <v>44</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>37</v>
@@ -1937,7 +1937,7 @@
         <v>46</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>12</v>
@@ -1966,7 +1966,7 @@
         <v>47</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>37</v>
@@ -2024,7 +2024,7 @@
         <v>52</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>12</v>
@@ -2053,7 +2053,7 @@
         <v>54</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>12</v>
@@ -2082,7 +2082,7 @@
         <v>56</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>12</v>
@@ -2111,7 +2111,7 @@
         <v>57</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>12</v>
@@ -2140,7 +2140,7 @@
         <v>60</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>12</v>
@@ -2157,7 +2157,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>9</v>
@@ -2166,16 +2166,16 @@
         <v>19</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -2198,7 +2198,7 @@
         <v>62</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>12</v>
@@ -2227,7 +2227,7 @@
         <v>64</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>12</v>
@@ -2241,7 +2241,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>9</v>
@@ -2253,7 +2253,7 @@
         <v>66</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>12</v>
@@ -2282,7 +2282,7 @@
         <v>68</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>12</v>
@@ -2311,7 +2311,7 @@
         <v>69</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>12</v>
@@ -2340,7 +2340,7 @@
         <v>71</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>12</v>
@@ -2369,7 +2369,7 @@
         <v>76</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>12</v>
@@ -2398,7 +2398,7 @@
         <v>77</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>12</v>
@@ -2427,7 +2427,7 @@
         <v>79</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>12</v>
@@ -2456,7 +2456,7 @@
         <v>85</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>12</v>
@@ -2485,13 +2485,13 @@
         <v>86</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2499,7 +2499,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>9</v>
@@ -2508,10 +2508,10 @@
         <v>70</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>87</v>
+        <v>271</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>12</v>
@@ -2537,10 +2537,10 @@
         <v>70</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>12</v>
@@ -2566,10 +2566,10 @@
         <v>70</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>12</v>
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>9</v>
@@ -2595,10 +2595,10 @@
         <v>70</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>12</v>
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>9</v>
@@ -2624,10 +2624,10 @@
         <v>70</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>12</v>
@@ -2644,7 +2644,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>9</v>
@@ -2653,10 +2653,10 @@
         <v>70</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>12</v>
@@ -2673,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>9</v>
@@ -2682,10 +2682,10 @@
         <v>70</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>12</v>
@@ -2702,7 +2702,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>9</v>
@@ -2711,10 +2711,10 @@
         <v>70</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>12</v>
@@ -2740,10 +2740,10 @@
         <v>70</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>12</v>
@@ -2760,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>9</v>
@@ -2769,10 +2769,10 @@
         <v>70</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>12</v>
@@ -2789,7 +2789,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>9</v>
@@ -2798,16 +2798,16 @@
         <v>70</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2818,19 +2818,19 @@
         <v>5</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>12</v>
@@ -2847,19 +2847,19 @@
         <v>6</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>134</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>12</v>
@@ -2876,19 +2876,19 @@
         <v>7</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="22" t="s">
+      <c r="F47" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>12</v>
@@ -2905,19 +2905,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D48" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="22" t="s">
+      <c r="F48" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>141</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>12</v>
@@ -2934,19 +2934,19 @@
         <v>100</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F49" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>12</v>
@@ -2963,19 +2963,19 @@
         <v>101</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>145</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>12</v>
@@ -2992,19 +2992,19 @@
         <v>102</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>149</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>12</v>
@@ -3021,19 +3021,19 @@
         <v>200</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="22" t="s">
+      <c r="F52" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>12</v>
@@ -3050,19 +3050,19 @@
         <v>201</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F53" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>12</v>
@@ -3079,19 +3079,19 @@
         <v>202</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D54" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>157</v>
-      </c>
       <c r="F54" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>12</v>
@@ -3108,19 +3108,19 @@
         <v>203</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="D55" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="22" t="s">
+      <c r="F55" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="16" t="s">
         <v>162</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>163</v>
       </c>
       <c r="H55" t="s">
         <v>12</v>
@@ -3137,19 +3137,19 @@
         <v>204</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D56" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="22" t="s">
+      <c r="F56" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>166</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>12</v>
@@ -3166,19 +3166,19 @@
         <v>205</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F57" s="19" t="s">
+      <c r="G57" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>170</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>12</v>
@@ -3195,19 +3195,19 @@
         <v>206</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>12</v>
@@ -3224,19 +3224,19 @@
         <v>207</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="16" t="s">
         <v>174</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>175</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>12</v>
@@ -3253,19 +3253,19 @@
         <v>208</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="F60" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>12</v>
@@ -3282,19 +3282,19 @@
         <v>209</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="16" t="s">
         <v>230</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>231</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>12</v>
@@ -3311,19 +3311,19 @@
         <v>210</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>181</v>
-      </c>
       <c r="F62" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>12</v>
@@ -3340,19 +3340,19 @@
         <v>211</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>183</v>
-      </c>
       <c r="F63" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>12</v>
@@ -3369,19 +3369,19 @@
         <v>212</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>185</v>
-      </c>
       <c r="F64" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>12</v>
@@ -3398,19 +3398,19 @@
         <v>213</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>187</v>
-      </c>
       <c r="F65" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>12</v>
@@ -3427,19 +3427,19 @@
         <v>214</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>189</v>
-      </c>
       <c r="F66" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>12</v>
@@ -3456,19 +3456,19 @@
         <v>215</v>
       </c>
       <c r="C67" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>191</v>
-      </c>
       <c r="F67" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>12</v>
@@ -3485,19 +3485,19 @@
         <v>216</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>193</v>
-      </c>
       <c r="F68" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>12</v>
@@ -3514,19 +3514,19 @@
         <v>217</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>195</v>
-      </c>
       <c r="F69" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>12</v>
@@ -3540,7 +3540,7 @@
         <v>71</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3551,19 +3551,19 @@
         <v>300</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="22" t="s">
+      <c r="F71" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="G71" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>12</v>
@@ -3580,19 +3580,19 @@
         <v>301</v>
       </c>
       <c r="C72" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>201</v>
-      </c>
       <c r="F72" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>12</v>
@@ -3609,19 +3609,19 @@
         <v>302</v>
       </c>
       <c r="C73" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>203</v>
-      </c>
       <c r="F73" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>12</v>
@@ -3638,19 +3638,19 @@
         <v>303</v>
       </c>
       <c r="C74" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>205</v>
-      </c>
       <c r="F74" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>12</v>
@@ -3667,19 +3667,19 @@
         <v>400</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="22" t="s">
+      <c r="F75" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="G75" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>12</v>
@@ -3696,19 +3696,19 @@
         <v>401</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>12</v>
@@ -3725,19 +3725,19 @@
         <v>402</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>12</v>
@@ -3754,19 +3754,19 @@
         <v>403</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>12</v>
@@ -3789,19 +3789,19 @@
         <v>500</v>
       </c>
       <c r="C80" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="22" t="s">
+      <c r="F80" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="G80" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>12</v>
@@ -3818,19 +3818,19 @@
         <v>501</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>12</v>
@@ -3847,19 +3847,19 @@
         <v>502</v>
       </c>
       <c r="C82" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>217</v>
-      </c>
       <c r="F82" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>12</v>
@@ -3881,19 +3881,19 @@
         <v>600</v>
       </c>
       <c r="C84" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>219</v>
-      </c>
       <c r="F84" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>12</v>
@@ -3910,19 +3910,19 @@
         <v>700</v>
       </c>
       <c r="C85" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>221</v>
-      </c>
       <c r="F85" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>12</v>
@@ -3939,19 +3939,19 @@
         <v>800</v>
       </c>
       <c r="C86" t="s">
+        <v>221</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>223</v>
-      </c>
       <c r="F86" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>12</v>
@@ -3968,19 +3968,19 @@
         <v>900</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>12</v>
@@ -3997,19 +3997,19 @@
         <v>1000</v>
       </c>
       <c r="C88" t="s">
+        <v>224</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>226</v>
-      </c>
       <c r="F88" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>12</v>
@@ -4026,19 +4026,19 @@
         <v>1100</v>
       </c>
       <c r="C89" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>228</v>
-      </c>
       <c r="F89" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>12</v>
@@ -4055,19 +4055,19 @@
         <v>1200</v>
       </c>
       <c r="C90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="16" t="s">
         <v>253</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>254</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>12</v>
@@ -4084,19 +4084,19 @@
         <v>1300</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E91" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="16" t="s">
         <v>255</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>256</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>12</v>
@@ -4113,19 +4113,19 @@
         <v>1400</v>
       </c>
       <c r="C92" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>258</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>12</v>
@@ -4142,19 +4142,19 @@
         <v>1500</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>12</v>
@@ -4171,19 +4171,19 @@
         <v>1600</v>
       </c>
       <c r="C94" t="s">
+        <v>260</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>262</v>
-      </c>
       <c r="F94" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>12</v>

--- a/Book4.xlsx
+++ b/Book4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\divyanitesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0F64CD-654F-46C2-8E59-81F8C02CB3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7EAB8C-7730-4CC3-808A-0EEC0066E14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6AEFF83-53A2-4AB3-A54B-BFDB81503BED}"/>
   </bookViews>
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06817A5D-A7A6-4F44-8082-7E89BB95033F}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
